--- a/individual_case_outputs/avey/497.xlsx
+++ b/individual_case_outputs/avey/497.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>urge urinary incontinence</t>
+          <t>overactive bladder</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>urge urinary incontinence</t>
+          <t>overactive bladder</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>urge urinary incontinence</t>
+          <t>overactive bladder</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>urge urinary incontinence</t>
+          <t>overactive bladder</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -724,7 +724,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>urge urinary incontinence</t>
+          <t>detrusor instability</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -746,7 +746,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>urge urinary incontinence</t>
+          <t>overactive bladder</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -854,7 +854,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>urge urinary incontinence</t>
+          <t>overactive bladder</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
